--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Documents\Formation Developpeur\P4_Desseré_Quentin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Documents\Formation Developpeur\P4_Desseré_Quentin\projetmodif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA50E622-FE52-4B09-BF56-956270D1A1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47D1AA6-3C86-4D82-BBFE-F29D15BC2991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>Catégorie</t>
   </si>
@@ -78,18 +78,9 @@
     <t>mentionner webdesign</t>
   </si>
   <si>
-    <t>utiliser mots clés d'intention</t>
-  </si>
-  <si>
-    <t>utiliser mots clés de marque</t>
-  </si>
-  <si>
     <t>https://kwfinder.com/</t>
   </si>
   <si>
-    <t>Seo</t>
-  </si>
-  <si>
     <t>page 2 sans nom</t>
   </si>
   <si>
@@ -99,9 +90,6 @@
     <t>pas de balise title</t>
   </si>
   <si>
-    <t>H2 avant H3</t>
-  </si>
-  <si>
     <t>page 2 sans keywords</t>
   </si>
   <si>
@@ -139,13 +127,126 @@
   </si>
   <si>
     <t>revoir le code css</t>
+  </si>
+  <si>
+    <t>accessibilité</t>
+  </si>
+  <si>
+    <t>contrast error</t>
+  </si>
+  <si>
+    <t>liens footer trop clair</t>
+  </si>
+  <si>
+    <t>diminuer luminosité</t>
+  </si>
+  <si>
+    <r>
+      <t>couleur : #171717</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>mauvaise pratique</t>
+  </si>
+  <si>
+    <t>supprimer la section</t>
+  </si>
+  <si>
+    <t>section supprimée</t>
+  </si>
+  <si>
+    <t>p ligne 225 trop clair</t>
+  </si>
+  <si>
+    <t>"Contact" lignes 74/ 212 trop clair</t>
+  </si>
+  <si>
+    <t>couleur : #1A1A1A</t>
+  </si>
+  <si>
+    <t>titre h2 trop sombre</t>
+  </si>
+  <si>
+    <t>augmenter luminosité</t>
+  </si>
+  <si>
+    <t>couleur : #FBE8DF</t>
+  </si>
+  <si>
+    <t>H3 avant H2</t>
+  </si>
+  <si>
+    <t>liens reseaux sociaux à remplir</t>
+  </si>
+  <si>
+    <t>actuellement, liens vers l'index</t>
+  </si>
+  <si>
+    <t>changer les liens</t>
+  </si>
+  <si>
+    <t>alt images similaires</t>
+  </si>
+  <si>
+    <t>paragraphe caché avec des liens(logo) puis dans la page</t>
+  </si>
+  <si>
+    <t>nom non pertinant</t>
+  </si>
+  <si>
+    <t>renommer "contact"</t>
+  </si>
+  <si>
+    <t>wave webaim</t>
+  </si>
+  <si>
+    <t>lighthouse</t>
+  </si>
+  <si>
+    <t>pas de description dans meta</t>
+  </si>
+  <si>
+    <t>remplir la description</t>
+  </si>
+  <si>
+    <t>mettre quelque chose de cohérent</t>
+  </si>
+  <si>
+    <t>font-size&lt;12px</t>
+  </si>
+  <si>
+    <t>&lt;12 px pas bien</t>
+  </si>
+  <si>
+    <t>mettre size à 12px</t>
+  </si>
+  <si>
+    <t>liens partenaires trop proches</t>
+  </si>
+  <si>
+    <t>espacer les liens</t>
+  </si>
+  <si>
+    <t>ajouter un padding-bottom</t>
+  </si>
+  <si>
+    <t>.col-sm-4 li : padding-bottom : 5px;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,6 +276,23 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -210,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -218,6 +336,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,19 +557,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
     <col min="4" max="4" width="27.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="5" max="5" width="35.77734375" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
   </cols>
@@ -496,7 +620,7 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -515,6 +639,9 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F3" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
@@ -526,44 +653,66 @@
       <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="F4" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="4" t="s">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -571,8 +720,8 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
+      <c r="B10" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -581,29 +730,43 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -611,52 +774,172 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E18" t="s">
         <v>28</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
+      <c r="E19" t="s">
         <v>31</v>
       </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E17" t="s">
+      <c r="C24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E24" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1625,8 +1908,12 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Documents\Formation Developpeur\P4_Desseré_Quentin\projetmodif\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Documents\Formation Developpeur\P4_Desseré_Quentin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47D1AA6-3C86-4D82-BBFE-F29D15BC2991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA50E622-FE52-4B09-BF56-956270D1A1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Catégorie</t>
   </si>
@@ -78,9 +78,18 @@
     <t>mentionner webdesign</t>
   </si>
   <si>
+    <t>utiliser mots clés d'intention</t>
+  </si>
+  <si>
+    <t>utiliser mots clés de marque</t>
+  </si>
+  <si>
     <t>https://kwfinder.com/</t>
   </si>
   <si>
+    <t>Seo</t>
+  </si>
+  <si>
     <t>page 2 sans nom</t>
   </si>
   <si>
@@ -90,6 +99,9 @@
     <t>pas de balise title</t>
   </si>
   <si>
+    <t>H2 avant H3</t>
+  </si>
+  <si>
     <t>page 2 sans keywords</t>
   </si>
   <si>
@@ -127,126 +139,13 @@
   </si>
   <si>
     <t>revoir le code css</t>
-  </si>
-  <si>
-    <t>accessibilité</t>
-  </si>
-  <si>
-    <t>contrast error</t>
-  </si>
-  <si>
-    <t>liens footer trop clair</t>
-  </si>
-  <si>
-    <t>diminuer luminosité</t>
-  </si>
-  <si>
-    <r>
-      <t>couleur : #171717</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF202124"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>mauvaise pratique</t>
-  </si>
-  <si>
-    <t>supprimer la section</t>
-  </si>
-  <si>
-    <t>section supprimée</t>
-  </si>
-  <si>
-    <t>p ligne 225 trop clair</t>
-  </si>
-  <si>
-    <t>"Contact" lignes 74/ 212 trop clair</t>
-  </si>
-  <si>
-    <t>couleur : #1A1A1A</t>
-  </si>
-  <si>
-    <t>titre h2 trop sombre</t>
-  </si>
-  <si>
-    <t>augmenter luminosité</t>
-  </si>
-  <si>
-    <t>couleur : #FBE8DF</t>
-  </si>
-  <si>
-    <t>H3 avant H2</t>
-  </si>
-  <si>
-    <t>liens reseaux sociaux à remplir</t>
-  </si>
-  <si>
-    <t>actuellement, liens vers l'index</t>
-  </si>
-  <si>
-    <t>changer les liens</t>
-  </si>
-  <si>
-    <t>alt images similaires</t>
-  </si>
-  <si>
-    <t>paragraphe caché avec des liens(logo) puis dans la page</t>
-  </si>
-  <si>
-    <t>nom non pertinant</t>
-  </si>
-  <si>
-    <t>renommer "contact"</t>
-  </si>
-  <si>
-    <t>wave webaim</t>
-  </si>
-  <si>
-    <t>lighthouse</t>
-  </si>
-  <si>
-    <t>pas de description dans meta</t>
-  </si>
-  <si>
-    <t>remplir la description</t>
-  </si>
-  <si>
-    <t>mettre quelque chose de cohérent</t>
-  </si>
-  <si>
-    <t>font-size&lt;12px</t>
-  </si>
-  <si>
-    <t>&lt;12 px pas bien</t>
-  </si>
-  <si>
-    <t>mettre size à 12px</t>
-  </si>
-  <si>
-    <t>liens partenaires trop proches</t>
-  </si>
-  <si>
-    <t>espacer les liens</t>
-  </si>
-  <si>
-    <t>ajouter un padding-bottom</t>
-  </si>
-  <si>
-    <t>.col-sm-4 li : padding-bottom : 5px;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -276,23 +175,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF202124"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -328,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,12 +218,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,19 +433,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1004"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
     <col min="4" max="4" width="27.44140625" customWidth="1"/>
-    <col min="5" max="5" width="35.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
   </cols>
@@ -620,7 +496,7 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -639,9 +515,6 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
@@ -653,66 +526,44 @@
       <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>61</v>
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>53</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -720,8 +571,8 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>46</v>
+      <c r="B10" t="s">
+        <v>23</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -730,43 +581,29 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -774,172 +611,52 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="4"/>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
+    <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1908,12 +1625,8 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Documents\Formation Developpeur\P4_Desseré_Quentin\projetmodif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47D1AA6-3C86-4D82-BBFE-F29D15BC2991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052A529F-79BE-4688-8202-675C108BDCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>Catégorie</t>
   </si>
@@ -204,12 +204,6 @@
   </si>
   <si>
     <t>renommer "contact"</t>
-  </si>
-  <si>
-    <t>wave webaim</t>
-  </si>
-  <si>
-    <t>lighthouse</t>
   </si>
   <si>
     <t>pas de description dans meta</t>
@@ -560,7 +554,7 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -639,9 +633,7 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
@@ -653,9 +645,7 @@
       <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="4"/>
@@ -665,13 +655,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -680,13 +670,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -739,16 +729,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="E12" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Documents\Formation Developpeur\P4_Desseré_Quentin\projetmodif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052A529F-79BE-4688-8202-675C108BDCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6806246-726A-412D-99DD-C116ACBFC447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>Catégorie</t>
   </si>
@@ -51,57 +51,9 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>(SEO ou accessiblité ?)</t>
-  </si>
-  <si>
     <t>SEO</t>
   </si>
   <si>
-    <t>keywords à améliorer</t>
-  </si>
-  <si>
-    <t>keywords dupliqués</t>
-  </si>
-  <si>
-    <t>mots-clés non pertinents</t>
-  </si>
-  <si>
-    <t>utiliser différents type</t>
-  </si>
-  <si>
-    <t>mieux cibler les keyword</t>
-  </si>
-  <si>
-    <t>mentionner lyon</t>
-  </si>
-  <si>
-    <t>mentionner webdesign</t>
-  </si>
-  <si>
-    <t>https://kwfinder.com/</t>
-  </si>
-  <si>
-    <t>page 2 sans nom</t>
-  </si>
-  <si>
-    <t>nom cohérent</t>
-  </si>
-  <si>
-    <t>pas de balise title</t>
-  </si>
-  <si>
-    <t>page 2 sans keywords</t>
-  </si>
-  <si>
-    <t>Partenaires sans rapport</t>
-  </si>
-  <si>
-    <t>liens trop nombreux</t>
-  </si>
-  <si>
-    <t>h1 et h3 ne contiennent pas les bons mots clés</t>
-  </si>
-  <si>
     <t>validateur html et css</t>
   </si>
   <si>
@@ -114,28 +66,10 @@
     <t>préciser le français</t>
   </si>
   <si>
-    <t>attributs non autorisés dans form</t>
-  </si>
-  <si>
-    <t>revoir le code html</t>
-  </si>
-  <si>
-    <t>bootstrap 3 erreur</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>revoir le code css</t>
-  </si>
-  <si>
     <t>accessibilité</t>
-  </si>
-  <si>
-    <t>contrast error</t>
-  </si>
-  <si>
-    <t>liens footer trop clair</t>
   </si>
   <si>
     <t>diminuer luminosité</t>
@@ -158,24 +92,12 @@
     <t>mauvaise pratique</t>
   </si>
   <si>
-    <t>supprimer la section</t>
-  </si>
-  <si>
     <t>section supprimée</t>
   </si>
   <si>
-    <t>p ligne 225 trop clair</t>
-  </si>
-  <si>
-    <t>"Contact" lignes 74/ 212 trop clair</t>
-  </si>
-  <si>
     <t>couleur : #1A1A1A</t>
   </si>
   <si>
-    <t>titre h2 trop sombre</t>
-  </si>
-  <si>
     <t>augmenter luminosité</t>
   </si>
   <si>
@@ -185,62 +107,155 @@
     <t>H3 avant H2</t>
   </si>
   <si>
-    <t>liens reseaux sociaux à remplir</t>
-  </si>
-  <si>
-    <t>actuellement, liens vers l'index</t>
-  </si>
-  <si>
-    <t>changer les liens</t>
-  </si>
-  <si>
     <t>alt images similaires</t>
   </si>
   <si>
-    <t>paragraphe caché avec des liens(logo) puis dans la page</t>
-  </si>
-  <si>
     <t>nom non pertinant</t>
   </si>
   <si>
-    <t>renommer "contact"</t>
-  </si>
-  <si>
-    <t>pas de description dans meta</t>
-  </si>
-  <si>
-    <t>remplir la description</t>
-  </si>
-  <si>
     <t>mettre quelque chose de cohérent</t>
   </si>
   <si>
     <t>font-size&lt;12px</t>
   </si>
   <si>
-    <t>&lt;12 px pas bien</t>
-  </si>
-  <si>
     <t>mettre size à 12px</t>
   </si>
   <si>
-    <t>liens partenaires trop proches</t>
-  </si>
-  <si>
-    <t>espacer les liens</t>
-  </si>
-  <si>
-    <t>ajouter un padding-bottom</t>
-  </si>
-  <si>
-    <t>.col-sm-4 li : padding-bottom : 5px;</t>
+    <t>Nom "page2" à remplacer partout</t>
+  </si>
+  <si>
+    <t>pas de title</t>
+  </si>
+  <si>
+    <t>page 2 &lt;head&gt;</t>
+  </si>
+  <si>
+    <t>pas de div &lt;meta name= keyword&gt;</t>
+  </si>
+  <si>
+    <t>footer</t>
+  </si>
+  <si>
+    <t>partenaires sans rapport/black hat</t>
+  </si>
+  <si>
+    <t>https://validator.w3.org/nu/</t>
+  </si>
+  <si>
+    <t>class =keyword à supprimer partout de l'index</t>
+  </si>
+  <si>
+    <t>https://lecercledesredacteurs.com/le-keyword-stuffing-une-pratique-seo-black-hat-a-eviter/#:~:text=Le%20keyword%20stuffing%20(ou%20bourrage,obtenir%20un%20meilleur%20positionnement%20SEO.</t>
+  </si>
+  <si>
+    <t>index tout les Parapraphes p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index p ligne 225 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact lignes 74/ 212 </t>
+  </si>
+  <si>
+    <t>contrast error : trop clair</t>
+  </si>
+  <si>
+    <t>index h2</t>
+  </si>
+  <si>
+    <t>contrast error:trop sombre</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>https://blog.hubspot.fr/marketing/obtenir-liens-augmenter-referencement</t>
+  </si>
+  <si>
+    <t>https://kwfinder.com</t>
+  </si>
+  <si>
+    <t>suppimer les partenaires sans rapport</t>
+  </si>
+  <si>
+    <t>tout les partenaires supprimés</t>
+  </si>
+  <si>
+    <t>mettres les keywords au bons endroits(h,p,etc)</t>
+  </si>
+  <si>
+    <t>keywords dupliqués, paris au lieu de lyon</t>
+  </si>
+  <si>
+    <t>description meta vide</t>
+  </si>
+  <si>
+    <t>ne pas dupliquer pour rien, choisir la bonne ville</t>
+  </si>
+  <si>
+    <t>Paris remplacé par Lyon, keywords supprimé</t>
+  </si>
+  <si>
+    <t>description remplie</t>
+  </si>
+  <si>
+    <t>remplir la division</t>
+  </si>
+  <si>
+    <t>keywords de l'index copiés</t>
+  </si>
+  <si>
+    <t>index L 5</t>
+  </si>
+  <si>
+    <t>index et page2  L 6</t>
+  </si>
+  <si>
+    <t>renommé par "contact"</t>
+  </si>
+  <si>
+    <t>choisir un nom cohérent</t>
+  </si>
+  <si>
+    <t>index L22,</t>
+  </si>
+  <si>
+    <t>mettre le bon titre</t>
+  </si>
+  <si>
+    <t>title choisit"la Panthère"</t>
+  </si>
+  <si>
+    <t>les titres doivent être dans le bon ordre</t>
+  </si>
+  <si>
+    <t>modifier les html pour avoir le bon ordre</t>
+  </si>
+  <si>
+    <t>titre H2 et H3 inversés</t>
+  </si>
+  <si>
+    <t>lighthouse</t>
+  </si>
+  <si>
+    <t>webaim wave</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>mettre des alt plus pertinants</t>
+  </si>
+  <si>
+    <t>alt modifiés</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -288,6 +303,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -319,10 +340,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,8 +358,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,43 +575,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1004"/>
+  <dimension ref="A1:AA1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" customWidth="1"/>
-    <col min="5" max="5" width="35.77734375" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="26" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="36.77734375" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="27" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -607,329 +633,367 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" t="s">
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="5"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1901,9 +1965,13 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{0F3490C1-E04B-4C7B-9F80-1A12CB7F14A0}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{D44090AC-5B0A-43E5-A278-FBAF44D2BF67}"/>
+    <hyperlink ref="G3" r:id="rId3" location=":~:text=Le%20keyword%20stuffing%20(ou%20bourrage,obtenir%20un%20meilleur%20positionnement%20SEO." xr:uid="{EABE040C-B4D8-4A13-8419-C8168EC39A8F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Documents\Formation Developpeur\P4_Desseré_Quentin\projetmodif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6806246-726A-412D-99DD-C116ACBFC447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB3C4C4-19E4-4A20-BDCF-905C15EEC232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>préciser le français</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>accessibilité</t>
   </si>
   <si>
@@ -250,23 +247,19 @@
   <si>
     <t>alt modifiés</t>
   </si>
+  <si>
+    <t>blog.hubspot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -310,28 +303,15 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor rgb="FF7030A0"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -342,29 +322,163 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7030A0"/>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -375,6 +489,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8B73F7B-9EB2-4F3B-A252-90127260DC02}" name="Tableau1" displayName="Tableau1" ref="A1:G16" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:G16" xr:uid="{E8B73F7B-9EB2-4F3B-A252-90127260DC02}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{7573F401-08FF-48B4-B6B7-93C4AA0D8264}" name="top"/>
+    <tableColumn id="2" xr3:uid="{D0BECEEE-2967-4225-973C-2ACC9E12EB1F}" name="Catégorie" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{F963D51B-3A8D-43E0-AA81-597CD921D8EB}" name="Problème identifié" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{F0C14019-D862-4318-92DF-138DA34E6B2D}" name="Explication du problème" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{129FD5D3-C318-43EE-89AE-1B28C484AC2C}" name="Bonne pratique à adopter" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{144D6EC3-ECE0-4927-8913-7FFD375EA29C}" name="Action recommandée"/>
+    <tableColumn id="7" xr3:uid="{F36EB1CB-93FB-4189-85D8-24E84224171B}" name="Référence" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1003"/>
+  <dimension ref="A1:AA998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -588,97 +718,97 @@
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="36.77734375" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="160.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="27" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>42</v>
+      <c r="G2" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -689,19 +819,19 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>43</v>
+      <c r="G4" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -712,62 +842,62 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>64</v>
+      <c r="G5" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>22</v>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="4" t="s">
         <v>56</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -778,16 +908,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -797,20 +927,20 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>65</v>
+      <c r="G9" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -829,165 +959,154 @@
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="D13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="8"/>
-    </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="5"/>
-      <c r="F15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="4"/>
+    </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="F26" s="7"/>
-    </row>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1960,18 +2079,17 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" xr:uid="{0F3490C1-E04B-4C7B-9F80-1A12CB7F14A0}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{D44090AC-5B0A-43E5-A278-FBAF44D2BF67}"/>
     <hyperlink ref="G3" r:id="rId3" location=":~:text=Le%20keyword%20stuffing%20(ou%20bourrage,obtenir%20un%20meilleur%20positionnement%20SEO." xr:uid="{EABE040C-B4D8-4A13-8419-C8168EC39A8F}"/>
+    <hyperlink ref="G23" r:id="rId4" xr:uid="{31BCB208-2447-4AD4-B0D2-0F8E7E985B1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId4"/>
+  <pageSetup orientation="landscape" r:id="rId5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Documents\Formation Developpeur\P4_Desseré_Quentin\projetmodif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB3C4C4-19E4-4A20-BDCF-905C15EEC232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C037A6D-EE0C-49FB-8CBA-83CFC1A5A089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>Catégorie</t>
   </si>
@@ -119,12 +119,6 @@
     <t>mettre size à 12px</t>
   </si>
   <si>
-    <t>Nom "page2" à remplacer partout</t>
-  </si>
-  <si>
-    <t>pas de title</t>
-  </si>
-  <si>
     <t>page 2 &lt;head&gt;</t>
   </si>
   <si>
@@ -209,21 +203,9 @@
     <t>index et page2  L 6</t>
   </si>
   <si>
-    <t>renommé par "contact"</t>
-  </si>
-  <si>
     <t>choisir un nom cohérent</t>
   </si>
   <si>
-    <t>index L22,</t>
-  </si>
-  <si>
-    <t>mettre le bon titre</t>
-  </si>
-  <si>
-    <t>title choisit"la Panthère"</t>
-  </si>
-  <si>
     <t>les titres doivent être dans le bon ordre</t>
   </si>
   <si>
@@ -233,9 +215,6 @@
     <t>titre H2 et H3 inversés</t>
   </si>
   <si>
-    <t>lighthouse</t>
-  </si>
-  <si>
     <t>webaim wave</t>
   </si>
   <si>
@@ -249,6 +228,36 @@
   </si>
   <si>
     <t>blog.hubspot</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/meta</t>
+  </si>
+  <si>
+    <t>http://www.indg.fr/SEO/nom-page.html</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist</t>
+  </si>
+  <si>
+    <t>https://audreytips.com/impact-web-design-seo/#:~:text=La%20taille%20de%20la%20police%20d'%C3%A9criture%20sur%20une%20page,termes%20de%20taille%20de%20police.</t>
+  </si>
+  <si>
+    <t>Nom "page2" à remplacer partout et index L22</t>
+  </si>
+  <si>
+    <t>page2  renommée "contact", page1 nommée "la Panthère"</t>
+  </si>
+  <si>
+    <t>utilisation d'images de texte</t>
+  </si>
+  <si>
+    <t>pratique à eviter</t>
+  </si>
+  <si>
+    <t>images remplacées par texte equivalent</t>
   </si>
 </sst>
 </file>
@@ -339,31 +348,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7030A0"/>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -478,6 +462,31 @@
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7030A0"/>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -492,16 +501,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8B73F7B-9EB2-4F3B-A252-90127260DC02}" name="Tableau1" displayName="Tableau1" ref="A1:G16" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8B73F7B-9EB2-4F3B-A252-90127260DC02}" name="Tableau1" displayName="Tableau1" ref="A1:G16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:G16" xr:uid="{E8B73F7B-9EB2-4F3B-A252-90127260DC02}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{7573F401-08FF-48B4-B6B7-93C4AA0D8264}" name="top"/>
-    <tableColumn id="2" xr3:uid="{D0BECEEE-2967-4225-973C-2ACC9E12EB1F}" name="Catégorie" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{F963D51B-3A8D-43E0-AA81-597CD921D8EB}" name="Problème identifié" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{F0C14019-D862-4318-92DF-138DA34E6B2D}" name="Explication du problème" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{129FD5D3-C318-43EE-89AE-1B28C484AC2C}" name="Bonne pratique à adopter" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D0BECEEE-2967-4225-973C-2ACC9E12EB1F}" name="Catégorie" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F963D51B-3A8D-43E0-AA81-597CD921D8EB}" name="Problème identifié" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{F0C14019-D862-4318-92DF-138DA34E6B2D}" name="Explication du problème" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{129FD5D3-C318-43EE-89AE-1B28C484AC2C}" name="Bonne pratique à adopter" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{144D6EC3-ECE0-4927-8913-7FFD375EA29C}" name="Action recommandée"/>
-    <tableColumn id="7" xr3:uid="{F36EB1CB-93FB-4189-85D8-24E84224171B}" name="Référence" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{F36EB1CB-93FB-4189-85D8-24E84224171B}" name="Référence" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -707,24 +716,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="36.77734375" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="42.5546875" customWidth="1"/>
     <col min="7" max="7" width="160.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="27" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -773,19 +782,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -796,19 +805,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -819,19 +828,19 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -842,16 +851,16 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>63</v>
@@ -865,16 +874,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>63</v>
@@ -888,16 +897,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -907,17 +919,20 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>57</v>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -927,43 +942,43 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>61</v>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>64</v>
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
+        <v>71</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -974,10 +989,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -986,16 +1001,16 @@
         <v>13</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1004,16 +1019,16 @@
         <v>16</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>17</v>
@@ -1022,7 +1037,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1030,19 +1045,19 @@
         <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1050,7 +1065,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>23</v>
@@ -1059,8 +1074,8 @@
         <v>24</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="4" t="s">
-        <v>63</v>
+      <c r="G15" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1101,7 +1116,7 @@
     <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G23" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2085,11 +2100,13 @@
     <hyperlink ref="G2" r:id="rId2" xr:uid="{D44090AC-5B0A-43E5-A278-FBAF44D2BF67}"/>
     <hyperlink ref="G3" r:id="rId3" location=":~:text=Le%20keyword%20stuffing%20(ou%20bourrage,obtenir%20un%20meilleur%20positionnement%20SEO." xr:uid="{EABE040C-B4D8-4A13-8419-C8168EC39A8F}"/>
     <hyperlink ref="G23" r:id="rId4" xr:uid="{31BCB208-2447-4AD4-B0D2-0F8E7E985B1A}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{30FA0FCC-6597-4E51-B513-AFFC5F8D9C8C}"/>
+    <hyperlink ref="G15" r:id="rId6" location=":~:text=La%20taille%20de%20la%20police%20d'%C3%A9criture%20sur%20une%20page,termes%20de%20taille%20de%20police." xr:uid="{926AA758-9318-45C9-8721-BAC04B6E2814}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId5"/>
+  <pageSetup orientation="landscape" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Documents\Formation Developpeur\P4_Desseré_Quentin\projetmodif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C037A6D-EE0C-49FB-8CBA-83CFC1A5A089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3319E5B3-EF70-4D03-BE04-6CEB0BFAF92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>Catégorie</t>
   </si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>titre H2 et H3 inversés</t>
-  </si>
-  <si>
-    <t>webaim wave</t>
   </si>
   <si>
     <t>index</t>
@@ -717,7 +714,7 @@
   <dimension ref="A1:AA998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -863,7 +860,7 @@
         <v>50</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -886,7 +883,7 @@
         <v>48</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -897,7 +894,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>21</v>
@@ -906,10 +903,10 @@
         <v>53</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -932,7 +929,7 @@
         <v>56</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -966,19 +963,19 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1001,7 +998,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1019,7 +1016,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1037,7 +1034,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1045,19 +1042,19 @@
         <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
         <v>59</v>
       </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" t="s">
-        <v>57</v>
+      <c r="G14" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1075,7 +1072,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1116,7 +1113,7 @@
     <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G23" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Documents\Formation Developpeur\P4_Desseré_Quentin\projetmodif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3319E5B3-EF70-4D03-BE04-6CEB0BFAF92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16439928-1523-4B88-8A04-06A0EBC25DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
   <si>
     <t>Catégorie</t>
   </si>
@@ -255,6 +255,39 @@
   </si>
   <si>
     <t>images remplacées par texte equivalent</t>
+  </si>
+  <si>
+    <t>Performances</t>
+  </si>
+  <si>
+    <t>images de texte utilisés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index L 87 127 157 </t>
+  </si>
+  <si>
+    <t>Remplacer par du vrai texte</t>
+  </si>
+  <si>
+    <t>rajout de H2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index </t>
+  </si>
+  <si>
+    <t>mauvais format d'images</t>
+  </si>
+  <si>
+    <t>plusieurs images passés en WebP</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/search/docs/advanced/guidelines/google-images?hl=fr</t>
+  </si>
+  <si>
+    <t>https://www.anthedesign.fr/creation-de-sites-internet/format-webp/#:~:text=Concr%C3%A8tement%2C%20le%20format%20Webp%20permet,qualit%C3%A9%20similaire%20%C3%A0%20l'originale.</t>
+  </si>
+  <si>
+    <t>mettre un format plus adapté</t>
   </si>
 </sst>
 </file>
@@ -498,8 +531,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8B73F7B-9EB2-4F3B-A252-90127260DC02}" name="Tableau1" displayName="Tableau1" ref="A1:G16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:G16" xr:uid="{E8B73F7B-9EB2-4F3B-A252-90127260DC02}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8B73F7B-9EB2-4F3B-A252-90127260DC02}" name="Tableau1" displayName="Tableau1" ref="A1:G17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:G17" xr:uid="{E8B73F7B-9EB2-4F3B-A252-90127260DC02}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{7573F401-08FF-48B4-B6B7-93C4AA0D8264}" name="top"/>
     <tableColumn id="2" xr3:uid="{D0BECEEE-2967-4225-973C-2ACC9E12EB1F}" name="Catégorie" dataDxfId="4"/>
@@ -713,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -845,22 +878,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1076,14 +1109,44 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F17" s="4"/>
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Documents\Formation Developpeur\P4_Desseré_Quentin\projetmodif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16439928-1523-4B88-8A04-06A0EBC25DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62184355-EF79-4415-A78B-32BE69B02380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
   <si>
     <t>Catégorie</t>
   </si>
@@ -58,12 +58,6 @@
   </si>
   <si>
     <t>non valid</t>
-  </si>
-  <si>
-    <t>problème de langue</t>
-  </si>
-  <si>
-    <t>préciser le français</t>
   </si>
   <si>
     <t>accessibilité</t>
@@ -131,15 +125,9 @@
     <t>partenaires sans rapport/black hat</t>
   </si>
   <si>
-    <t>https://validator.w3.org/nu/</t>
-  </si>
-  <si>
     <t>class =keyword à supprimer partout de l'index</t>
   </si>
   <si>
-    <t>https://lecercledesredacteurs.com/le-keyword-stuffing-une-pratique-seo-black-hat-a-eviter/#:~:text=Le%20keyword%20stuffing%20(ou%20bourrage,obtenir%20un%20meilleur%20positionnement%20SEO.</t>
-  </si>
-  <si>
     <t>index tout les Parapraphes p</t>
   </si>
   <si>
@@ -161,9 +149,6 @@
     <t>top</t>
   </si>
   <si>
-    <t>https://blog.hubspot.fr/marketing/obtenir-liens-augmenter-referencement</t>
-  </si>
-  <si>
     <t>https://kwfinder.com</t>
   </si>
   <si>
@@ -224,24 +209,6 @@
     <t>alt modifiés</t>
   </si>
   <si>
-    <t>blog.hubspot</t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements</t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/meta</t>
-  </si>
-  <si>
-    <t>http://www.indg.fr/SEO/nom-page.html</t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist</t>
-  </si>
-  <si>
-    <t>https://audreytips.com/impact-web-design-seo/#:~:text=La%20taille%20de%20la%20police%20d'%C3%A9criture%20sur%20une%20page,termes%20de%20taille%20de%20police.</t>
-  </si>
-  <si>
     <t>Nom "page2" à remplacer partout et index L22</t>
   </si>
   <si>
@@ -260,18 +227,9 @@
     <t>Performances</t>
   </si>
   <si>
-    <t>images de texte utilisés</t>
-  </si>
-  <si>
     <t xml:space="preserve">index L 87 127 157 </t>
   </si>
   <si>
-    <t>Remplacer par du vrai texte</t>
-  </si>
-  <si>
-    <t>rajout de H2</t>
-  </si>
-  <si>
     <t xml:space="preserve">index </t>
   </si>
   <si>
@@ -281,13 +239,46 @@
     <t>plusieurs images passés en WebP</t>
   </si>
   <si>
-    <t>https://developers.google.com/search/docs/advanced/guidelines/google-images?hl=fr</t>
-  </si>
-  <si>
-    <t>https://www.anthedesign.fr/creation-de-sites-internet/format-webp/#:~:text=Concr%C3%A8tement%2C%20le%20format%20Webp%20permet,qualit%C3%A9%20similaire%20%C3%A0%20l'originale.</t>
-  </si>
-  <si>
     <t>mettre un format plus adapté</t>
+  </si>
+  <si>
+    <t>plusieurs erreurs</t>
+  </si>
+  <si>
+    <t>toutes les erreurs ont été corrigées</t>
+  </si>
+  <si>
+    <t>blog.hubspot.fr</t>
+  </si>
+  <si>
+    <t>lecercledesredacteurs.com</t>
+  </si>
+  <si>
+    <t>anthedesign.fr</t>
+  </si>
+  <si>
+    <t>developer.mozilla.org</t>
+  </si>
+  <si>
+    <t>http://www.indg.fr</t>
+  </si>
+  <si>
+    <t>audreytips.com</t>
+  </si>
+  <si>
+    <t>developer.mozilla.org/accessibility</t>
+  </si>
+  <si>
+    <t>developer.mozilla.org/meta</t>
+  </si>
+  <si>
+    <t>developer.mozilla.org/titres</t>
+  </si>
+  <si>
+    <t>https://validator.w3.org/</t>
+  </si>
+  <si>
+    <t>size modifiée</t>
   </si>
 </sst>
 </file>
@@ -747,7 +738,7 @@
   <dimension ref="A1:AA998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -763,7 +754,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -812,19 +803,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -835,19 +826,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -858,19 +849,19 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -878,22 +869,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -904,19 +895,19 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>62</v>
+        <v>43</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -927,19 +918,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -950,19 +941,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -979,13 +970,13 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
+        <v>67</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -993,22 +984,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1016,58 +1007,58 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>64</v>
+      <c r="G11" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>64</v>
+        <v>14</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1075,19 +1066,19 @@
         <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1095,17 +1086,19 @@
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G15" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1113,40 +1106,28 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>62</v>
+        <v>45</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
@@ -1175,9 +1156,7 @@
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G23" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2159,14 +2138,23 @@
     <hyperlink ref="G4" r:id="rId1" xr:uid="{0F3490C1-E04B-4C7B-9F80-1A12CB7F14A0}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{D44090AC-5B0A-43E5-A278-FBAF44D2BF67}"/>
     <hyperlink ref="G3" r:id="rId3" location=":~:text=Le%20keyword%20stuffing%20(ou%20bourrage,obtenir%20un%20meilleur%20positionnement%20SEO." xr:uid="{EABE040C-B4D8-4A13-8419-C8168EC39A8F}"/>
-    <hyperlink ref="G23" r:id="rId4" xr:uid="{31BCB208-2447-4AD4-B0D2-0F8E7E985B1A}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{30FA0FCC-6597-4E51-B513-AFFC5F8D9C8C}"/>
-    <hyperlink ref="G15" r:id="rId6" location=":~:text=La%20taille%20de%20la%20police%20d'%C3%A9criture%20sur%20une%20page,termes%20de%20taille%20de%20police." xr:uid="{926AA758-9318-45C9-8721-BAC04B6E2814}"/>
+    <hyperlink ref="G8" r:id="rId4" xr:uid="{30FA0FCC-6597-4E51-B513-AFFC5F8D9C8C}"/>
+    <hyperlink ref="G15" r:id="rId5" location=":~:text=La%20taille%20de%20la%20police%20d'%C3%A9criture%20sur%20une%20page,termes%20de%20taille%20de%20police." xr:uid="{926AA758-9318-45C9-8721-BAC04B6E2814}"/>
+    <hyperlink ref="G5" r:id="rId6" location=":~:text=Concr%C3%A8tement%2C%20le%20format%20Webp%20permet,qualit%C3%A9%20similaire%20%C3%A0%20l'originale." xr:uid="{9D619458-CB9E-40BC-8D3B-D35862BAFD08}"/>
+    <hyperlink ref="G6" r:id="rId7" xr:uid="{93D10D30-CC21-465C-88D7-BE5C83267D15}"/>
+    <hyperlink ref="G7" r:id="rId8" xr:uid="{5F3CF70B-366E-48CA-AB7A-653588AF4776}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{617BBB96-70D3-4713-BF08-0976461534BD}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{23AE793A-A5E8-4FED-BE94-A81EB7353542}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{72ABAB69-F19E-45AA-B9B3-E77ECD080CB8}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{A6A7DC78-0886-4498-B5C6-B36FE9287789}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{8C98EDCB-67B5-4679-86CA-4C7715A83AF7}"/>
+    <hyperlink ref="G16" r:id="rId14" xr:uid="{181AD61E-F13F-4ED3-B3FA-1E36E5000F3D}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{331649CE-50D0-4E88-8645-3EC6A2776538}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId7"/>
+  <pageSetup orientation="landscape" r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Documents\Formation Developpeur\P4_Desseré_Quentin\projetmodif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62184355-EF79-4415-A78B-32BE69B02380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF6863E-C8CF-4104-8BA5-AB2DFF989D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>Catégorie</t>
   </si>
@@ -54,95 +54,21 @@
     <t>SEO</t>
   </si>
   <si>
-    <t>validateur html et css</t>
-  </si>
-  <si>
-    <t>non valid</t>
-  </si>
-  <si>
     <t>accessibilité</t>
   </si>
   <si>
-    <t>diminuer luminosité</t>
-  </si>
-  <si>
-    <r>
-      <t>couleur : #171717</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF202124"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>mauvaise pratique</t>
-  </si>
-  <si>
-    <t>section supprimée</t>
-  </si>
-  <si>
-    <t>couleur : #1A1A1A</t>
-  </si>
-  <si>
-    <t>augmenter luminosité</t>
-  </si>
-  <si>
-    <t>couleur : #FBE8DF</t>
-  </si>
-  <si>
     <t>H3 avant H2</t>
   </si>
   <si>
     <t>alt images similaires</t>
   </si>
   <si>
-    <t>nom non pertinant</t>
-  </si>
-  <si>
-    <t>mettre quelque chose de cohérent</t>
-  </si>
-  <si>
-    <t>font-size&lt;12px</t>
-  </si>
-  <si>
     <t>mettre size à 12px</t>
   </si>
   <si>
-    <t>page 2 &lt;head&gt;</t>
-  </si>
-  <si>
-    <t>pas de div &lt;meta name= keyword&gt;</t>
-  </si>
-  <si>
-    <t>footer</t>
-  </si>
-  <si>
-    <t>partenaires sans rapport/black hat</t>
-  </si>
-  <si>
-    <t>class =keyword à supprimer partout de l'index</t>
-  </si>
-  <si>
-    <t>index tout les Parapraphes p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index p ligne 225 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact lignes 74/ 212 </t>
-  </si>
-  <si>
     <t>contrast error : trop clair</t>
   </si>
   <si>
-    <t>index h2</t>
-  </si>
-  <si>
     <t>contrast error:trop sombre</t>
   </si>
   <si>
@@ -152,99 +78,45 @@
     <t>https://kwfinder.com</t>
   </si>
   <si>
-    <t>suppimer les partenaires sans rapport</t>
-  </si>
-  <si>
-    <t>tout les partenaires supprimés</t>
-  </si>
-  <si>
-    <t>mettres les keywords au bons endroits(h,p,etc)</t>
-  </si>
-  <si>
     <t>keywords dupliqués, paris au lieu de lyon</t>
   </si>
   <si>
     <t>description meta vide</t>
   </si>
   <si>
-    <t>ne pas dupliquer pour rien, choisir la bonne ville</t>
-  </si>
-  <si>
     <t>Paris remplacé par Lyon, keywords supprimé</t>
   </si>
   <si>
     <t>description remplie</t>
   </si>
   <si>
-    <t>remplir la division</t>
-  </si>
-  <si>
     <t>keywords de l'index copiés</t>
   </si>
   <si>
-    <t>index L 5</t>
-  </si>
-  <si>
-    <t>index et page2  L 6</t>
-  </si>
-  <si>
-    <t>choisir un nom cohérent</t>
-  </si>
-  <si>
     <t>les titres doivent être dans le bon ordre</t>
   </si>
   <si>
-    <t>modifier les html pour avoir le bon ordre</t>
-  </si>
-  <si>
-    <t>titre H2 et H3 inversés</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>mettre des alt plus pertinants</t>
-  </si>
-  <si>
     <t>alt modifiés</t>
   </si>
   <si>
-    <t>Nom "page2" à remplacer partout et index L22</t>
-  </si>
-  <si>
     <t>page2  renommée "contact", page1 nommée "la Panthère"</t>
   </si>
   <si>
     <t>utilisation d'images de texte</t>
   </si>
   <si>
-    <t>pratique à eviter</t>
-  </si>
-  <si>
     <t>images remplacées par texte equivalent</t>
   </si>
   <si>
     <t>Performances</t>
   </si>
   <si>
-    <t xml:space="preserve">index L 87 127 157 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">index </t>
-  </si>
-  <si>
     <t>mauvais format d'images</t>
   </si>
   <si>
     <t>plusieurs images passés en WebP</t>
   </si>
   <si>
-    <t>mettre un format plus adapté</t>
-  </si>
-  <si>
-    <t>plusieurs erreurs</t>
-  </si>
-  <si>
     <t>toutes les erreurs ont été corrigées</t>
   </si>
   <si>
@@ -278,14 +150,68 @@
     <t>https://validator.w3.org/</t>
   </si>
   <si>
-    <t>size modifiée</t>
+    <t>partenaires sans rapport</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>mauvaise pratique/ black hat</t>
+  </si>
+  <si>
+    <t>partenaires remplacés</t>
+  </si>
+  <si>
+    <t>mauvaise pratique/black hat</t>
+  </si>
+  <si>
+    <t>supprimer la classe</t>
+  </si>
+  <si>
+    <t>class keyword =spam de keywords</t>
+  </si>
+  <si>
+    <t>mauvais keywords=mauvais referencement</t>
+  </si>
+  <si>
+    <t>temps de chargement trop long</t>
+  </si>
+  <si>
+    <t>Noms de pages non pertinent</t>
+  </si>
+  <si>
+    <t>titre H2 et H3 inversés pour respecter l'ordre</t>
+  </si>
+  <si>
+    <t>validateur html et css non valid</t>
+  </si>
+  <si>
+    <t>déteriore le SEO</t>
+  </si>
+  <si>
+    <t>cause des problèmes de lecture</t>
+  </si>
+  <si>
+    <t>diminuer luminosité :couleur : #171717 </t>
+  </si>
+  <si>
+    <t>diminuer luminosité : couleur : #1A1A1A</t>
+  </si>
+  <si>
+    <t>augmenter luminosité : couleur : #FBE8DF</t>
+  </si>
+  <si>
+    <t>paragraphe : font-size&lt;12px</t>
+  </si>
+  <si>
+    <t>page2 :pas de div &lt;meta name= keyword&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -314,12 +240,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF202124"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -352,7 +272,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -361,8 +281,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -737,24 +657,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" customWidth="1"/>
     <col min="5" max="5" width="36.77734375" customWidth="1"/>
-    <col min="6" max="6" width="42.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="160.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="27" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -803,19 +723,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -826,19 +746,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -849,19 +769,19 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -869,22 +789,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>64</v>
+        <v>47</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -894,20 +814,20 @@
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>47</v>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -918,19 +838,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -941,19 +861,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -964,19 +884,19 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>66</v>
+        <v>51</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -984,121 +904,116 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>11</v>
+        <v>53</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1106,19 +1021,17 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="5"/>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
